--- a/dev/example-emx2/yaml_emx2.xlsx
+++ b/dev/example-emx2/yaml_emx2.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dcruvolo/GitHub/yaml-emx-convert/dev/example-emx2/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0DD67D9-F487-7347-BD39-70F64DEDE9A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-32880" yWindow="-3860" windowWidth="26940" windowHeight="16580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="molgenis" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="85">
   <si>
     <t>attributeTemplateDefault</t>
   </si>
@@ -100,7 +106,7 @@
     <t>ref</t>
   </si>
   <si>
-    <t>headings</t>
+    <t>heading</t>
   </si>
   <si>
     <t>datetime</t>
@@ -274,8 +280,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -340,6 +346,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -386,7 +400,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -418,9 +432,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -452,6 +484,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -627,14 +677,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="162" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>75</v>
       </c>
@@ -669,7 +721,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -683,7 +735,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -706,7 +758,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -723,7 +775,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -740,7 +792,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -757,7 +809,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -774,16 +826,13 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>1</v>
       </c>
       <c r="B8" t="s">
         <v>0</v>
       </c>
-      <c r="C8" t="s">
-        <v>1</v>
-      </c>
       <c r="J8" s="2" t="s">
         <v>36</v>
       </c>
@@ -791,16 +840,13 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>2</v>
       </c>
       <c r="B9" t="s">
         <v>0</v>
       </c>
-      <c r="C9" t="s">
-        <v>2</v>
-      </c>
       <c r="J9" s="2" t="s">
         <v>37</v>
       </c>
@@ -808,16 +854,13 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>3</v>
       </c>
       <c r="B10" t="s">
         <v>0</v>
       </c>
-      <c r="C10" t="s">
-        <v>3</v>
-      </c>
       <c r="J10" s="2" t="s">
         <v>38</v>
       </c>
@@ -825,7 +868,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -839,7 +882,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -862,7 +905,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -879,7 +922,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -896,7 +939,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -913,7 +956,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -930,7 +973,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -947,7 +990,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -967,7 +1010,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -984,7 +1027,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -1001,7 +1044,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -1021,7 +1064,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -1041,7 +1084,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -1058,7 +1101,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -1077,29 +1120,29 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J2" r:id="rId1"/>
-    <hyperlink ref="J3" r:id="rId2"/>
-    <hyperlink ref="J4" r:id="rId3"/>
-    <hyperlink ref="J5" r:id="rId4"/>
-    <hyperlink ref="J6" r:id="rId5"/>
-    <hyperlink ref="J7" r:id="rId6"/>
-    <hyperlink ref="J8" r:id="rId7"/>
-    <hyperlink ref="J9" r:id="rId8"/>
-    <hyperlink ref="J10" r:id="rId9"/>
-    <hyperlink ref="J11" r:id="rId10"/>
-    <hyperlink ref="J12" r:id="rId11"/>
-    <hyperlink ref="J13" r:id="rId12"/>
-    <hyperlink ref="J14" r:id="rId13"/>
-    <hyperlink ref="J15" r:id="rId14"/>
-    <hyperlink ref="J16" r:id="rId15"/>
-    <hyperlink ref="J17" r:id="rId16"/>
-    <hyperlink ref="J18" r:id="rId17"/>
-    <hyperlink ref="J19" r:id="rId18"/>
-    <hyperlink ref="J20" r:id="rId19"/>
-    <hyperlink ref="J21" r:id="rId20"/>
-    <hyperlink ref="J22" r:id="rId21"/>
-    <hyperlink ref="J23" r:id="rId22"/>
-    <hyperlink ref="J24" r:id="rId23" location="wasUpdatedBy"/>
+    <hyperlink ref="J2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="J3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="J4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="J5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="J6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="J7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="J8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="J9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="J10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="J11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="J12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="J13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="J14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="J15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="J16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="J17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="J18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="J19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="J20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="J21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="J22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="J23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="J24" r:id="rId23" location="wasUpdatedBy" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
